--- a/采购单批量导入模板.xlsx
+++ b/采购单批量导入模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陶祎祎\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陶祎祎\IdeaProjects\oa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A9E4FF-1C8E-45D8-A31E-2B34FDFCBEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EC392D-817B-4245-8F33-3C2360743D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/采购单批量导入模板.xlsx
+++ b/采购单批量导入模板.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陶祎祎\IdeaProjects\oa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EC392D-817B-4245-8F33-3C2360743D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D14E40-8D55-4BEE-B4F0-74493E4401A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="73">
   <si>
     <t>采购合同编号</t>
   </si>
@@ -51,9 +59,6 @@
     <t>采购货物单位</t>
   </si>
   <si>
-    <t>采购货物单价</t>
-  </si>
-  <si>
     <t>采购总金额</t>
   </si>
   <si>
@@ -232,7 +237,83 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>B厂</t>
+    <t>采购货物单价1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购货物单价2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购货物单价3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购货物单价4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购货物单价5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购货物单价6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购货物单价7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购货物单价8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购货物单价9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购货物单价10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购货物单价11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购货物单价12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购货物单价13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购货物单价14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购货物单价15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购货物单价16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购货物单价17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购货物单价18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购货物单价19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购货物单价20</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -240,6 +321,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -288,7 +372,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -569,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX36"/>
+  <dimension ref="A1:BQ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -587,10 +671,38 @@
     <col min="9" max="9" width="15.2109375" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" customWidth="1"/>
     <col min="11" max="11" width="11.640625" customWidth="1"/>
-    <col min="12" max="50" width="12.640625" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="38" width="12.640625" customWidth="1"/>
+    <col min="39" max="39" width="13.640625" customWidth="1"/>
+    <col min="40" max="41" width="12.640625" customWidth="1"/>
+    <col min="42" max="42" width="13.640625" customWidth="1"/>
+    <col min="43" max="44" width="12.640625" customWidth="1"/>
+    <col min="45" max="45" width="13.78515625" customWidth="1"/>
+    <col min="46" max="47" width="12.640625" customWidth="1"/>
+    <col min="48" max="48" width="14.0703125" customWidth="1"/>
+    <col min="49" max="50" width="12.640625" customWidth="1"/>
+    <col min="51" max="51" width="13.5" customWidth="1"/>
+    <col min="52" max="52" width="11" customWidth="1"/>
+    <col min="53" max="53" width="12.0703125" customWidth="1"/>
+    <col min="54" max="54" width="13.85546875" customWidth="1"/>
+    <col min="55" max="55" width="10.5703125" customWidth="1"/>
+    <col min="56" max="56" width="10.78515625" customWidth="1"/>
+    <col min="57" max="57" width="14.140625" customWidth="1"/>
+    <col min="58" max="58" width="10.7109375" customWidth="1"/>
+    <col min="59" max="59" width="11.28515625" customWidth="1"/>
+    <col min="60" max="60" width="13.5" customWidth="1"/>
+    <col min="61" max="61" width="10.7109375" customWidth="1"/>
+    <col min="62" max="62" width="10.140625" customWidth="1"/>
+    <col min="63" max="63" width="13.35546875" customWidth="1"/>
+    <col min="64" max="64" width="10.5703125" customWidth="1"/>
+    <col min="65" max="65" width="10.5" customWidth="1"/>
+    <col min="66" max="66" width="13.78515625" customWidth="1"/>
+    <col min="67" max="67" width="10.35546875" customWidth="1"/>
+    <col min="68" max="68" width="10.2109375" customWidth="1"/>
+    <col min="69" max="69" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,138 +731,195 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AA1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AD1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR1" t="s">
+      <c r="BJ1" t="s">
         <v>44</v>
       </c>
-      <c r="AS1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AT1" t="s">
+      <c r="BK1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BM1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BN1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BP1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BQ1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -759,42 +928,55 @@
         <v>44835</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2">
-        <v>1000</v>
-      </c>
-      <c r="K2" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1</v>
+        <f>SUM(A2+1)</f>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -803,42 +985,55 @@
         <v>44836</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3">
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="J3">
-        <v>1000</v>
-      </c>
-      <c r="K3" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>1</v>
+        <f t="shared" ref="A4:A36" si="0">SUM(A3+1)</f>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -847,42 +1042,55 @@
         <v>44837</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4">
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>1000</v>
-      </c>
-      <c r="K4" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -891,42 +1099,55 @@
         <v>44838</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5">
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <v>1000</v>
-      </c>
-      <c r="K5" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -935,42 +1156,55 @@
         <v>44839</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <v>1000</v>
-      </c>
-      <c r="K6" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -979,42 +1213,55 @@
         <v>44840</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7">
-        <v>10</v>
-      </c>
-      <c r="J7">
-        <v>1000</v>
-      </c>
-      <c r="K7" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="P7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1023,42 +1270,55 @@
         <v>44841</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8">
-        <v>10</v>
-      </c>
-      <c r="J8">
-        <v>1000</v>
-      </c>
-      <c r="K8" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+      <c r="P8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1067,42 +1327,55 @@
         <v>44842</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9">
-        <v>10</v>
-      </c>
-      <c r="J9">
-        <v>1000</v>
-      </c>
-      <c r="K9" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>10</v>
+      </c>
+      <c r="P9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1111,42 +1384,55 @@
         <v>44843</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10">
-        <v>10</v>
-      </c>
-      <c r="J10">
-        <v>1000</v>
-      </c>
-      <c r="K10" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1155,42 +1441,55 @@
         <v>44844</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11">
-        <v>10</v>
-      </c>
-      <c r="J11">
-        <v>1000</v>
-      </c>
-      <c r="K11" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1199,42 +1498,55 @@
         <v>44845</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12">
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12">
-        <v>10</v>
-      </c>
-      <c r="J12">
-        <v>1000</v>
-      </c>
-      <c r="K12" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1243,42 +1555,55 @@
         <v>44846</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13">
         <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13">
-        <v>10</v>
-      </c>
-      <c r="J13">
-        <v>1000</v>
-      </c>
-      <c r="K13" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1287,42 +1612,55 @@
         <v>44847</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I14">
-        <v>10</v>
-      </c>
-      <c r="J14">
-        <v>1000</v>
-      </c>
-      <c r="K14" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>10</v>
+      </c>
+      <c r="P14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1331,42 +1669,55 @@
         <v>44848</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I15">
-        <v>10</v>
-      </c>
-      <c r="J15">
-        <v>1000</v>
-      </c>
-      <c r="K15" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>10</v>
+      </c>
+      <c r="P15" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1375,42 +1726,55 @@
         <v>44849</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16">
-        <v>10</v>
-      </c>
-      <c r="J16">
-        <v>1000</v>
-      </c>
-      <c r="K16" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+      <c r="P16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+      <c r="R16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1419,42 +1783,55 @@
         <v>44850</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17">
-        <v>10</v>
-      </c>
-      <c r="J17">
-        <v>1000</v>
-      </c>
-      <c r="K17" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>10</v>
+      </c>
+      <c r="P17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1463,42 +1840,55 @@
         <v>44851</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I18">
-        <v>10</v>
-      </c>
-      <c r="J18">
-        <v>1000</v>
-      </c>
-      <c r="K18" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>10</v>
+      </c>
+      <c r="P18" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1507,42 +1897,55 @@
         <v>44852</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I19">
-        <v>10</v>
-      </c>
-      <c r="J19">
-        <v>1000</v>
-      </c>
-      <c r="K19" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <v>10</v>
+      </c>
+      <c r="P19" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1551,42 +1954,55 @@
         <v>44853</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20">
         <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I20">
-        <v>10</v>
-      </c>
-      <c r="J20">
-        <v>1000</v>
-      </c>
-      <c r="K20" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>10</v>
+      </c>
+      <c r="P20" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q20">
+        <v>5</v>
+      </c>
+      <c r="R20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1595,42 +2011,55 @@
         <v>44854</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I21">
-        <v>10</v>
-      </c>
-      <c r="J21">
-        <v>1000</v>
-      </c>
-      <c r="K21" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>10</v>
+      </c>
+      <c r="P21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q21">
+        <v>5</v>
+      </c>
+      <c r="R21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1639,42 +2068,55 @@
         <v>44855</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I22">
-        <v>10</v>
-      </c>
-      <c r="J22">
-        <v>1000</v>
-      </c>
-      <c r="K22" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J22" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
       </c>
       <c r="L22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <v>10</v>
+      </c>
+      <c r="P22" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+      <c r="R22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1683,42 +2125,55 @@
         <v>44856</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I23">
-        <v>10</v>
-      </c>
-      <c r="J23">
-        <v>1000</v>
-      </c>
-      <c r="K23" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O23">
+        <v>10</v>
+      </c>
+      <c r="P23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
+      <c r="R23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1727,42 +2182,55 @@
         <v>44857</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I24">
-        <v>10</v>
-      </c>
-      <c r="J24">
-        <v>1000</v>
-      </c>
-      <c r="K24" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O24">
+        <v>10</v>
+      </c>
+      <c r="P24" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q24">
+        <v>5</v>
+      </c>
+      <c r="R24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1771,42 +2239,55 @@
         <v>44858</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25">
         <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25">
-        <v>10</v>
-      </c>
-      <c r="J25">
-        <v>1000</v>
-      </c>
-      <c r="K25" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <v>10</v>
+      </c>
+      <c r="P25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q25">
+        <v>5</v>
+      </c>
+      <c r="R25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1815,42 +2296,55 @@
         <v>44859</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26">
         <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I26">
-        <v>10</v>
-      </c>
-      <c r="J26">
-        <v>1000</v>
-      </c>
-      <c r="K26" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
       </c>
       <c r="L26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O26">
+        <v>10</v>
+      </c>
+      <c r="P26" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q26">
+        <v>5</v>
+      </c>
+      <c r="R26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1859,42 +2353,55 @@
         <v>44860</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27">
         <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I27">
-        <v>10</v>
-      </c>
-      <c r="J27">
-        <v>1000</v>
-      </c>
-      <c r="K27" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O27">
+        <v>10</v>
+      </c>
+      <c r="P27" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q27">
+        <v>5</v>
+      </c>
+      <c r="R27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1903,42 +2410,55 @@
         <v>44861</v>
       </c>
       <c r="F28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I28">
-        <v>10</v>
-      </c>
-      <c r="J28">
-        <v>1000</v>
-      </c>
-      <c r="K28" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
       </c>
       <c r="L28">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O28">
+        <v>10</v>
+      </c>
+      <c r="P28" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+      <c r="R28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1947,42 +2467,55 @@
         <v>44862</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G29">
         <v>10</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I29">
-        <v>10</v>
-      </c>
-      <c r="J29">
-        <v>1000</v>
-      </c>
-      <c r="K29" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O29">
+        <v>10</v>
+      </c>
+      <c r="P29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q29">
+        <v>5</v>
+      </c>
+      <c r="R29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1991,42 +2524,55 @@
         <v>44863</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I30">
-        <v>10</v>
-      </c>
-      <c r="J30">
-        <v>1000</v>
-      </c>
-      <c r="K30" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
       </c>
       <c r="L30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O30">
+        <v>10</v>
+      </c>
+      <c r="P30" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q30">
+        <v>5</v>
+      </c>
+      <c r="R30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2035,42 +2581,55 @@
         <v>44864</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I31">
-        <v>10</v>
-      </c>
-      <c r="J31">
-        <v>1000</v>
-      </c>
-      <c r="K31" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O31">
+        <v>10</v>
+      </c>
+      <c r="P31" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q31">
+        <v>5</v>
+      </c>
+      <c r="R31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2079,42 +2638,55 @@
         <v>44865</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G32">
         <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I32">
-        <v>10</v>
-      </c>
-      <c r="J32">
-        <v>1000</v>
-      </c>
-      <c r="K32" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J32" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
       </c>
       <c r="L32">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O32">
+        <v>10</v>
+      </c>
+      <c r="P32" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2123,42 +2695,55 @@
         <v>44866</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G33">
         <v>10</v>
       </c>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I33">
-        <v>10</v>
-      </c>
-      <c r="J33">
-        <v>1000</v>
-      </c>
-      <c r="K33" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
       </c>
       <c r="L33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O33">
+        <v>10</v>
+      </c>
+      <c r="P33" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q33">
+        <v>5</v>
+      </c>
+      <c r="R33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2167,42 +2752,55 @@
         <v>44867</v>
       </c>
       <c r="F34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>10</v>
       </c>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I34">
-        <v>10</v>
-      </c>
-      <c r="J34">
-        <v>1000</v>
-      </c>
-      <c r="K34" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J34" t="s">
+        <v>52</v>
+      </c>
+      <c r="K34">
+        <v>5</v>
       </c>
       <c r="L34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O34">
+        <v>10</v>
+      </c>
+      <c r="P34" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q34">
+        <v>5</v>
+      </c>
+      <c r="R34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2211,42 +2809,55 @@
         <v>44868</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>10</v>
       </c>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I35">
-        <v>10</v>
-      </c>
-      <c r="J35">
-        <v>1000</v>
-      </c>
-      <c r="K35" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J35" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
       </c>
       <c r="L35">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="O35">
+        <v>10</v>
+      </c>
+      <c r="P35" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q35">
+        <v>5</v>
+      </c>
+      <c r="R35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2255,30 +2866,42 @@
         <v>44869</v>
       </c>
       <c r="F36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G36">
         <v>10</v>
       </c>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I36">
-        <v>10</v>
-      </c>
-      <c r="J36">
-        <v>1000</v>
-      </c>
-      <c r="K36" t="s">
-        <v>53</v>
+        <v>1000</v>
+      </c>
+      <c r="J36" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
       </c>
       <c r="L36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N36">
+        <v>5</v>
+      </c>
+      <c r="O36">
+        <v>10</v>
+      </c>
+      <c r="P36" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q36">
+        <v>5</v>
+      </c>
+      <c r="R36">
         <v>10</v>
       </c>
     </row>

--- a/采购单批量导入模板.xlsx
+++ b/采购单批量导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陶祎祎\IdeaProjects\oa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D14E40-8D55-4BEE-B4F0-74493E4401A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697A62B5-D443-49A9-918C-5196344C10AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
